--- a/Proyecto Policia Nacional.xlsx
+++ b/Proyecto Policia Nacional.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNPHU\Desktop\Proyecto Policía Nacional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BNPHU\Documents\Proyecto Policía Nacional\Proyecto-final-reconocimiento-de-escenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E9DB9-2216-4D8B-A35A-D62DE1950CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72601EC5-D453-49D8-A67B-957089746325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73631B5E-AED9-434B-931B-F39600DEDA66}"/>
   </bookViews>
@@ -708,7 +708,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +718,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,23 +848,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -955,6 +949,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F232A73-4DDD-4D15-8133-D608E8DF98FB}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1306,7 @@
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="61" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" style="5" customWidth="1"/>
     <col min="14" max="14" width="15.140625" style="5" customWidth="1"/>
@@ -1297,151 +1317,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
     </row>
     <row r="2" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="12"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>120778886</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="62" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="25">
         <v>28955</v>
       </c>
       <c r="E4" s="9">
         <v>43</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="32" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="8" t="s">
@@ -1450,112 +1470,112 @@
       <c r="O4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="12"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>125687587</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>34627</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="35">
         <v>28</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="39" t="s">
         <v>193</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="12"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>196035972</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="63" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="25">
         <v>36832</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>22</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="41"/>
+      <c r="M6" s="32" t="s">
         <v>19</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -1564,56 +1584,56 @@
       <c r="O6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="12"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>188253675</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="62" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="25">
         <v>38793</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="35">
         <v>16</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="36"/>
+      <c r="G7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="32" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="8" t="s">
@@ -1622,54 +1642,54 @@
       <c r="O7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>189537523</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="25">
         <v>37596</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <v>20</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="36" t="s">
+      <c r="L8" s="41"/>
+      <c r="M8" s="32" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="8" t="s">
@@ -1678,168 +1698,168 @@
       <c r="O8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="T8" s="12"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>179645821</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="25">
         <v>35206</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="35">
         <v>26</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="36" t="s">
+      <c r="L9" s="41"/>
+      <c r="M9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="42" t="s">
         <v>59</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S9" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="12"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>122579864</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <v>40</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" s="37" t="s">
+      <c r="Q10" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="T10" s="12"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>173856575</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>28682</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="35">
         <v>44</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="36"/>
+      <c r="G11" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="36" t="s">
+      <c r="L11" s="41"/>
+      <c r="M11" s="32" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="8" t="s">
@@ -1848,19 +1868,19 @@
       <c r="O11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P11" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="R11" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="S11" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="T11" s="12"/>
+      <c r="T11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -1872,142 +1892,142 @@
       <c r="C12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="25">
         <v>39299</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="35">
         <v>17</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="41"/>
+      <c r="M12" s="32" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="R12" s="49"/>
-      <c r="S12" s="37" t="s">
+      <c r="R12" s="45"/>
+      <c r="S12" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="T12" s="12"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>120778887</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="63" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <v>36418</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="35">
         <v>23</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="36"/>
+      <c r="G13" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="36" t="s">
+      <c r="L13" s="41"/>
+      <c r="M13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="46" t="s">
         <v>69</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="37" t="s">
+      <c r="P13" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="S13" s="37" t="s">
+      <c r="S13" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="T13" s="12"/>
+      <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>120678786</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="25">
         <v>27760</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="35">
         <v>46</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="36"/>
+      <c r="G14" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="8" t="s">
@@ -2016,54 +2036,54 @@
       <c r="O14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="T14" s="12"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:27" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>120778886</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="25">
         <v>38452</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="35">
         <v>15</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="36" t="s">
+      <c r="L15" s="41"/>
+      <c r="M15" s="32" t="s">
         <v>98</v>
       </c>
       <c r="N15" s="8" t="s">
@@ -2072,54 +2092,54 @@
       <c r="O15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="T15" s="12"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>120558269</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="63" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="25">
         <v>38087</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="35">
         <v>18</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="35" t="s">
+      <c r="K16" s="59"/>
+      <c r="L16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="32" t="s">
         <v>200</v>
       </c>
       <c r="N16" s="8" t="s">
@@ -2128,19 +2148,19 @@
       <c r="O16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="R16" s="37" t="s">
+      <c r="R16" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="S16" s="37" t="s">
+      <c r="S16" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="T16" s="12"/>
+      <c r="T16" s="11"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
@@ -2153,36 +2173,36 @@
       <c r="A17" s="9">
         <v>130178987</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="63" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="25">
         <v>37041</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="35">
         <v>21</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="36" t="s">
+      <c r="L17" s="41"/>
+      <c r="M17" s="32" t="s">
         <v>38</v>
       </c>
       <c r="N17" s="8" t="s">
@@ -2191,54 +2211,54 @@
       <c r="O17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="T17" s="12"/>
+      <c r="T17" s="11"/>
     </row>
     <row r="18" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>180772356</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="25">
         <v>37835</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="35">
         <v>19</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="51" t="s">
+      <c r="F18" s="36"/>
+      <c r="G18" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="54" t="s">
+      <c r="J18" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="55"/>
-      <c r="M18" s="36" t="s">
+      <c r="L18" s="51"/>
+      <c r="M18" s="32" t="s">
         <v>39</v>
       </c>
       <c r="N18" s="8" t="s">
@@ -2247,19 +2267,19 @@
       <c r="O18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="S18" s="37" t="s">
+      <c r="S18" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="T18" s="12"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
